--- a/Datasheet.xlsx
+++ b/Datasheet.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="3720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -77,7 +73,7 @@
     <t>onetwo</t>
   </si>
   <si>
-    <t>Shipping Information:</t>
+    <t>Item total: $39.98</t>
   </si>
 </sst>
 </file>
@@ -416,7 +412,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
